--- a/formal/UNAIDS/results/results-truncated.xlsx
+++ b/formal/UNAIDS/results/results-truncated.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/git/CascadeDashboard/formal/UNAIDS/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jack/git/CascadeDashboard/formal/UNAIDS/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="8420" windowWidth="35800" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="27320" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="90-90-90" sheetId="1" r:id="rId1"/>
@@ -844,11 +844,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-950545920"/>
-        <c:axId val="-950327968"/>
+        <c:axId val="-1314334192"/>
+        <c:axId val="-1316269072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-950545920"/>
+        <c:axId val="-1314334192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-950327968"/>
+        <c:crossAx val="-1316269072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -899,7 +899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-950327968"/>
+        <c:axId val="-1316269072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,6 +919,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -949,7 +950,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-950545920"/>
+        <c:crossAx val="-1314334192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,7 +1071,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1447,11 +1447,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-951762288"/>
-        <c:axId val="-951759968"/>
+        <c:axId val="-1316257776"/>
+        <c:axId val="-1316256000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-951762288"/>
+        <c:axId val="-1316257776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,7 +1494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-951759968"/>
+        <c:crossAx val="-1316256000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1502,7 +1502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-951759968"/>
+        <c:axId val="-1316256000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,6 +1522,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1552,7 +1553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-951762288"/>
+        <c:crossAx val="-1316257776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1566,7 +1567,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1673,7 +1673,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2050,11 +2049,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-956002480"/>
-        <c:axId val="-956173824"/>
+        <c:axId val="-1352976256"/>
+        <c:axId val="-1352964816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-956002480"/>
+        <c:axId val="-1352976256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-956173824"/>
+        <c:crossAx val="-1352964816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2105,7 +2104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-956173824"/>
+        <c:axId val="-1352964816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-956002480"/>
+        <c:crossAx val="-1352976256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2169,7 +2168,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2276,7 +2274,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2653,11 +2650,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-954925312"/>
-        <c:axId val="-954923264"/>
+        <c:axId val="-1316207424"/>
+        <c:axId val="-1316204672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-954925312"/>
+        <c:axId val="-1316207424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-954923264"/>
+        <c:crossAx val="-1316204672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-954923264"/>
+        <c:axId val="-1316204672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2758,7 +2755,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-954925312"/>
+        <c:crossAx val="-1316207424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2772,7 +2769,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2879,7 +2875,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3256,11 +3251,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1023289328"/>
-        <c:axId val="-1023291328"/>
+        <c:axId val="-1316183376"/>
+        <c:axId val="-1316180624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1023289328"/>
+        <c:axId val="-1316183376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,7 +3298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023291328"/>
+        <c:crossAx val="-1316180624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3311,7 +3306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1023291328"/>
+        <c:axId val="-1316180624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3361,7 +3356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023289328"/>
+        <c:crossAx val="-1316183376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,7 +3370,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6597,8 +6591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
